--- a/resources/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
+++ b/resources/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\Datasets\MigratoryModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\resources\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC7E2D-83EC-44D7-AF85-5E7B56F003FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B31A5-D211-4C95-BEDA-A4D7B885A4AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="110">
   <si>
     <t>A</t>
   </si>
@@ -275,6 +275,90 @@
   </si>
   <si>
     <t>Currie et al., 2013</t>
+  </si>
+  <si>
+    <t>AMNH - Combined 400 (all 5)</t>
+  </si>
+  <si>
+    <t>C-A</t>
+  </si>
+  <si>
+    <t>B-S</t>
+  </si>
+  <si>
+    <t>S-A</t>
+  </si>
+  <si>
+    <t>A-P</t>
+  </si>
+  <si>
+    <t>S-M</t>
+  </si>
+  <si>
+    <t>M-A</t>
+  </si>
+  <si>
+    <t>A-N</t>
+  </si>
+  <si>
+    <t>A-D</t>
+  </si>
+  <si>
+    <t>D-Y</t>
+  </si>
+  <si>
+    <t>M-B</t>
+  </si>
+  <si>
+    <t>M-C</t>
+  </si>
+  <si>
+    <t>M-K</t>
+  </si>
+  <si>
+    <t>M-Y</t>
+  </si>
+  <si>
+    <t>K-P</t>
+  </si>
+  <si>
+    <t>M-E</t>
+  </si>
+  <si>
+    <t>S-B</t>
+  </si>
+  <si>
+    <t>S-L</t>
+  </si>
+  <si>
+    <t>S-K</t>
+  </si>
+  <si>
+    <t>S-H</t>
+  </si>
+  <si>
+    <t>K-B</t>
+  </si>
+  <si>
+    <t>S-J</t>
+  </si>
+  <si>
+    <t>J-D</t>
+  </si>
+  <si>
+    <t>J-R</t>
+  </si>
+  <si>
+    <t>R-G</t>
+  </si>
+  <si>
+    <t>R-K</t>
+  </si>
+  <si>
+    <t>B-A</t>
+  </si>
+  <si>
+    <t>B-D</t>
   </si>
 </sst>
 </file>
@@ -626,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="M200" sqref="M200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,6 +6318,2346 @@
         <v>80</v>
       </c>
     </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E202">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F202" t="s">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>82</v>
+      </c>
+      <c r="I202" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>36</v>
+      </c>
+      <c r="D203">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E203">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F203" t="s">
+        <v>2</v>
+      </c>
+      <c r="H203" t="s">
+        <v>82</v>
+      </c>
+      <c r="I203" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>83</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>36</v>
+      </c>
+      <c r="D204">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E204">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F204" t="s">
+        <v>2</v>
+      </c>
+      <c r="H204" t="s">
+        <v>82</v>
+      </c>
+      <c r="I204" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>83</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E205">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F205" t="s">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>82</v>
+      </c>
+      <c r="I205" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>36</v>
+      </c>
+      <c r="D206">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E206">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F206" t="s">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>82</v>
+      </c>
+      <c r="I206" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>36</v>
+      </c>
+      <c r="D207">
+        <v>-1.753125</v>
+      </c>
+      <c r="E207">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>82</v>
+      </c>
+      <c r="I207" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>83</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E208">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F208" t="s">
+        <v>2</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>83</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>36</v>
+      </c>
+      <c r="D209">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E209">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F209" t="s">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>82</v>
+      </c>
+      <c r="I209" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E210">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F210" t="s">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>82</v>
+      </c>
+      <c r="I210" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+      <c r="D211">
+        <v>-1.753125</v>
+      </c>
+      <c r="E211">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
+        <v>82</v>
+      </c>
+      <c r="I211" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>84</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>36</v>
+      </c>
+      <c r="D212">
+        <v>-1.753125</v>
+      </c>
+      <c r="E212">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1</v>
+      </c>
+      <c r="H212" t="s">
+        <v>82</v>
+      </c>
+      <c r="I212" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>84</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>36</v>
+      </c>
+      <c r="D213">
+        <v>-23.125</v>
+      </c>
+      <c r="E213">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" t="s">
+        <v>82</v>
+      </c>
+      <c r="I213" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>85</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214">
+        <v>-23.125</v>
+      </c>
+      <c r="E214">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" t="s">
+        <v>82</v>
+      </c>
+      <c r="I214" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>85</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E215">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F215" t="s">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>82</v>
+      </c>
+      <c r="I215" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>36</v>
+      </c>
+      <c r="D216">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E216">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F216" t="s">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>82</v>
+      </c>
+      <c r="I216" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>86</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217">
+        <v>-13.3</v>
+      </c>
+      <c r="E217">
+        <v>39.125</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
+        <v>82</v>
+      </c>
+      <c r="I217" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>87</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>36</v>
+      </c>
+      <c r="D218">
+        <v>-23.125</v>
+      </c>
+      <c r="E218">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F218" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" t="s">
+        <v>82</v>
+      </c>
+      <c r="I218" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>87</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E219">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>82</v>
+      </c>
+      <c r="I219" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>88</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>36</v>
+      </c>
+      <c r="D220">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E220">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
+        <v>82</v>
+      </c>
+      <c r="I220" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>88</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>36</v>
+      </c>
+      <c r="D221">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E221">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F221" t="s">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s">
+        <v>82</v>
+      </c>
+      <c r="I221" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>89</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E222">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F222" t="s">
+        <v>0</v>
+      </c>
+      <c r="H222" t="s">
+        <v>82</v>
+      </c>
+      <c r="I222" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>89</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D223">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E223">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" t="s">
+        <v>82</v>
+      </c>
+      <c r="I223" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>90</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>36</v>
+      </c>
+      <c r="D224">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E224">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F224" t="s">
+        <v>0</v>
+      </c>
+      <c r="H224" t="s">
+        <v>82</v>
+      </c>
+      <c r="I224" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>90</v>
+      </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
+      <c r="C225" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225">
+        <v>-1.78</v>
+      </c>
+      <c r="E225">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F225" t="s">
+        <v>3</v>
+      </c>
+      <c r="H225" t="s">
+        <v>82</v>
+      </c>
+      <c r="I225" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>91</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226">
+        <v>-1.78</v>
+      </c>
+      <c r="E226">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F226" t="s">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>82</v>
+      </c>
+      <c r="I226" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227">
+        <v>-9.16</v>
+      </c>
+      <c r="E227">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="H227" t="s">
+        <v>82</v>
+      </c>
+      <c r="I227" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>92</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E228">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F228" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" t="s">
+        <v>82</v>
+      </c>
+      <c r="I228" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>92</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229">
+        <v>-1.753125</v>
+      </c>
+      <c r="E229">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1</v>
+      </c>
+      <c r="H229" t="s">
+        <v>82</v>
+      </c>
+      <c r="I229" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>93</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>35</v>
+      </c>
+      <c r="D230">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E230">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" t="s">
+        <v>82</v>
+      </c>
+      <c r="I230" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>93</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>35</v>
+      </c>
+      <c r="D231">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E231">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F231" t="s">
+        <v>2</v>
+      </c>
+      <c r="H231" t="s">
+        <v>82</v>
+      </c>
+      <c r="I231" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>94</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E232">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>82</v>
+      </c>
+      <c r="I232" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>94</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E233">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F233" t="s">
+        <v>9</v>
+      </c>
+      <c r="H233" t="s">
+        <v>82</v>
+      </c>
+      <c r="I233" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>95</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E234">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" t="s">
+        <v>82</v>
+      </c>
+      <c r="I234" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>53</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235">
+        <v>-9.16</v>
+      </c>
+      <c r="E235">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="H235" t="s">
+        <v>82</v>
+      </c>
+      <c r="I235" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>94</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E236">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" t="s">
+        <v>82</v>
+      </c>
+      <c r="I236" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>94</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>35</v>
+      </c>
+      <c r="D237">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E237">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+      <c r="H237" t="s">
+        <v>82</v>
+      </c>
+      <c r="I237" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E238">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F238" t="s">
+        <v>9</v>
+      </c>
+      <c r="H238" t="s">
+        <v>82</v>
+      </c>
+      <c r="I238" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>96</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239">
+        <v>-13.3</v>
+      </c>
+      <c r="E239">
+        <v>39.125</v>
+      </c>
+      <c r="F239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>82</v>
+      </c>
+      <c r="I239" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>31</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>35</v>
+      </c>
+      <c r="D240">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E240">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F240" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" t="s">
+        <v>82</v>
+      </c>
+      <c r="I240" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>31</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241" t="s">
+        <v>35</v>
+      </c>
+      <c r="D241">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E241">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F241" t="s">
+        <v>12</v>
+      </c>
+      <c r="H241" t="s">
+        <v>82</v>
+      </c>
+      <c r="I241" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>35</v>
+      </c>
+      <c r="D242">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E242">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F242" t="s">
+        <v>12</v>
+      </c>
+      <c r="H242" t="s">
+        <v>82</v>
+      </c>
+      <c r="I242" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>68</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>35</v>
+      </c>
+      <c r="D243">
+        <v>-23.125</v>
+      </c>
+      <c r="E243">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s">
+        <v>82</v>
+      </c>
+      <c r="I243" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>97</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E244">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>82</v>
+      </c>
+      <c r="I244" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>97</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245" t="s">
+        <v>36</v>
+      </c>
+      <c r="D245">
+        <v>-2.35</v>
+      </c>
+      <c r="E245">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F245" t="s">
+        <v>4</v>
+      </c>
+      <c r="H245" t="s">
+        <v>82</v>
+      </c>
+      <c r="I245" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>71</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>36</v>
+      </c>
+      <c r="D246">
+        <v>-2.35</v>
+      </c>
+      <c r="E246">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F246" t="s">
+        <v>4</v>
+      </c>
+      <c r="H246" t="s">
+        <v>82</v>
+      </c>
+      <c r="I246" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>71</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247">
+        <v>-5.85</v>
+      </c>
+      <c r="E247">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
+      <c r="H247" t="s">
+        <v>82</v>
+      </c>
+      <c r="I247" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>-5.85</v>
+      </c>
+      <c r="E248">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
+      <c r="H248" t="s">
+        <v>82</v>
+      </c>
+      <c r="I248" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>26</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="C249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249">
+        <v>-2.35</v>
+      </c>
+      <c r="E249">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F249" t="s">
+        <v>4</v>
+      </c>
+      <c r="H249" t="s">
+        <v>82</v>
+      </c>
+      <c r="I249" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250">
+        <v>-2.35</v>
+      </c>
+      <c r="E250">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F250" t="s">
+        <v>4</v>
+      </c>
+      <c r="H250" t="s">
+        <v>82</v>
+      </c>
+      <c r="I250" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>71</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251">
+        <v>-5.85</v>
+      </c>
+      <c r="E251">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+      <c r="H251" t="s">
+        <v>82</v>
+      </c>
+      <c r="I251" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252">
+        <v>-23.125</v>
+      </c>
+      <c r="E252">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" t="s">
+        <v>82</v>
+      </c>
+      <c r="I252" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>98</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253" t="s">
+        <v>35</v>
+      </c>
+      <c r="D253">
+        <v>-1.753125</v>
+      </c>
+      <c r="E253">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1</v>
+      </c>
+      <c r="H253" t="s">
+        <v>82</v>
+      </c>
+      <c r="I253" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>99</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254">
+        <v>-23.125</v>
+      </c>
+      <c r="E254">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F254" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" t="s">
+        <v>82</v>
+      </c>
+      <c r="I254" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255">
+        <v>-9.16</v>
+      </c>
+      <c r="E255">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="H255" t="s">
+        <v>82</v>
+      </c>
+      <c r="I255" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>98</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256">
+        <v>-23.125</v>
+      </c>
+      <c r="E256">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" t="s">
+        <v>82</v>
+      </c>
+      <c r="I256" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>98</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257">
+        <v>-1.753125</v>
+      </c>
+      <c r="E257">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1</v>
+      </c>
+      <c r="H257" t="s">
+        <v>82</v>
+      </c>
+      <c r="I257" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>100</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>35</v>
+      </c>
+      <c r="D258">
+        <v>-23.125</v>
+      </c>
+      <c r="E258">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" t="s">
+        <v>82</v>
+      </c>
+      <c r="I258" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>100</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="C259" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E259">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" t="s">
+        <v>82</v>
+      </c>
+      <c r="I259" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>98</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>35</v>
+      </c>
+      <c r="D260">
+        <v>-23.125</v>
+      </c>
+      <c r="E260">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" t="s">
+        <v>82</v>
+      </c>
+      <c r="I260" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>98</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="C261" t="s">
+        <v>35</v>
+      </c>
+      <c r="D261">
+        <v>-1.753125</v>
+      </c>
+      <c r="E261">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1</v>
+      </c>
+      <c r="H261" t="s">
+        <v>82</v>
+      </c>
+      <c r="I261" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>101</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262">
+        <v>-23.125</v>
+      </c>
+      <c r="E262">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F262" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" t="s">
+        <v>82</v>
+      </c>
+      <c r="I262" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>101</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263" t="s">
+        <v>35</v>
+      </c>
+      <c r="D263">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E263">
+        <v>15.75</v>
+      </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
+      <c r="H263" t="s">
+        <v>82</v>
+      </c>
+      <c r="I263" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>100</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>35</v>
+      </c>
+      <c r="D264">
+        <v>-23.125</v>
+      </c>
+      <c r="E264">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F264" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" t="s">
+        <v>82</v>
+      </c>
+      <c r="I264" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>100</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265" t="s">
+        <v>35</v>
+      </c>
+      <c r="D265">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E265">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F265" t="s">
+        <v>9</v>
+      </c>
+      <c r="H265" t="s">
+        <v>82</v>
+      </c>
+      <c r="I265" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>102</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>35</v>
+      </c>
+      <c r="D266">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E266">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+      <c r="H266" t="s">
+        <v>82</v>
+      </c>
+      <c r="I266" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>102</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>35</v>
+      </c>
+      <c r="D267">
+        <v>-1.753125</v>
+      </c>
+      <c r="E267">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1</v>
+      </c>
+      <c r="H267" t="s">
+        <v>82</v>
+      </c>
+      <c r="I267" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>103</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D268">
+        <v>-23.125</v>
+      </c>
+      <c r="E268">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" t="s">
+        <v>82</v>
+      </c>
+      <c r="I268" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>103</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E269">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F269" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" t="s">
+        <v>82</v>
+      </c>
+      <c r="I269" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>104</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>35</v>
+      </c>
+      <c r="D270">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E270">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F270" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" t="s">
+        <v>82</v>
+      </c>
+      <c r="I270" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>104</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>35</v>
+      </c>
+      <c r="D271">
+        <v>-1.78</v>
+      </c>
+      <c r="E271">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F271" t="s">
+        <v>3</v>
+      </c>
+      <c r="H271" t="s">
+        <v>82</v>
+      </c>
+      <c r="I271" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>35</v>
+      </c>
+      <c r="D272">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E272">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F272" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" t="s">
+        <v>82</v>
+      </c>
+      <c r="I272" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273" t="s">
+        <v>35</v>
+      </c>
+      <c r="D273">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E273">
+        <v>33</v>
+      </c>
+      <c r="F273" t="s">
+        <v>5</v>
+      </c>
+      <c r="H273" t="s">
+        <v>82</v>
+      </c>
+      <c r="I273" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>105</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>35</v>
+      </c>
+      <c r="D274">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E274">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F274" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" t="s">
+        <v>82</v>
+      </c>
+      <c r="I274" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>105</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275" t="s">
+        <v>35</v>
+      </c>
+      <c r="D275">
+        <v>-15.824999999999999</v>
+      </c>
+      <c r="E275">
+        <v>15.45</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s">
+        <v>82</v>
+      </c>
+      <c r="I275" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>35</v>
+      </c>
+      <c r="D276">
+        <v>-15.824999999999999</v>
+      </c>
+      <c r="E276">
+        <v>15.45</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s">
+        <v>82</v>
+      </c>
+      <c r="I276" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>106</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" t="s">
+        <v>35</v>
+      </c>
+      <c r="D277">
+        <v>-5.85</v>
+      </c>
+      <c r="E277">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F277" t="s">
+        <v>6</v>
+      </c>
+      <c r="H277" t="s">
+        <v>82</v>
+      </c>
+      <c r="I277" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>107</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278">
+        <v>-15.824999999999999</v>
+      </c>
+      <c r="E278">
+        <v>15.45</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s">
+        <v>82</v>
+      </c>
+      <c r="I278" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>107</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>35</v>
+      </c>
+      <c r="D279">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E279">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F279" t="s">
+        <v>9</v>
+      </c>
+      <c r="H279" t="s">
+        <v>82</v>
+      </c>
+      <c r="I279" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>98</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280">
+        <v>-23.125</v>
+      </c>
+      <c r="E280">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F280" t="s">
+        <v>15</v>
+      </c>
+      <c r="H280" t="s">
+        <v>82</v>
+      </c>
+      <c r="I280" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>98</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281">
+        <v>-1.753125</v>
+      </c>
+      <c r="E281">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1</v>
+      </c>
+      <c r="H281" t="s">
+        <v>82</v>
+      </c>
+      <c r="I281" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>108</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>35</v>
+      </c>
+      <c r="D282">
+        <v>-1.753125</v>
+      </c>
+      <c r="E282">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>108</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E283">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F283" t="s">
+        <v>0</v>
+      </c>
+      <c r="H283" t="s">
+        <v>82</v>
+      </c>
+      <c r="I283" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>35</v>
+      </c>
+      <c r="D284">
+        <v>-1.753125</v>
+      </c>
+      <c r="E284">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1</v>
+      </c>
+      <c r="H284" t="s">
+        <v>82</v>
+      </c>
+      <c r="I284" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" t="s">
+        <v>35</v>
+      </c>
+      <c r="D285">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E285">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F285" t="s">
+        <v>2</v>
+      </c>
+      <c r="H285" t="s">
+        <v>82</v>
+      </c>
+      <c r="I285" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>19</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>35</v>
+      </c>
+      <c r="D286">
+        <v>-1.753125</v>
+      </c>
+      <c r="E286">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1</v>
+      </c>
+      <c r="H286" t="s">
+        <v>82</v>
+      </c>
+      <c r="I286" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>19</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" t="s">
+        <v>35</v>
+      </c>
+      <c r="D287">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E287">
+        <v>15.75</v>
+      </c>
+      <c r="F287" t="s">
+        <v>7</v>
+      </c>
+      <c r="H287" t="s">
+        <v>82</v>
+      </c>
+      <c r="I287" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>108</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>35</v>
+      </c>
+      <c r="D288">
+        <v>-1.753125</v>
+      </c>
+      <c r="E288">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1</v>
+      </c>
+      <c r="H288" t="s">
+        <v>82</v>
+      </c>
+      <c r="I288" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>108</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289" t="s">
+        <v>35</v>
+      </c>
+      <c r="D289">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E289">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F289" t="s">
+        <v>0</v>
+      </c>
+      <c r="H289" t="s">
+        <v>82</v>
+      </c>
+      <c r="I289" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>109</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>35</v>
+      </c>
+      <c r="D290">
+        <v>-1.753125</v>
+      </c>
+      <c r="E290">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1</v>
+      </c>
+      <c r="H290" t="s">
+        <v>82</v>
+      </c>
+      <c r="I290" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>109</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>35</v>
+      </c>
+      <c r="D291">
+        <v>-1.78</v>
+      </c>
+      <c r="E291">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F291" t="s">
+        <v>3</v>
+      </c>
+      <c r="H291" t="s">
+        <v>82</v>
+      </c>
+      <c r="I291" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
